--- a/Kadarkuti_Marton/_ERETTSEGI_GYAKR/info/info_21maj/kupon.xlsx
+++ b/Kadarkuti_Marton/_ERETTSEGI_GYAKR/info/info_21maj/kupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatarefi-my.sharepoint.com/personal/kadarkuti_marton_tata-refi_hu/Documents/Dokumentumok/fakt2023/Kadarkuti_Marton/_ERETTSEGI_GYAKR/info/info_21maj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fakt2023\fakt2023\Kadarkuti_Marton\_ERETTSEGI_GYAKR\info\info_21maj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{91C72779-6278-44FD-A2C2-11B39ED34451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{98B8B211-6EC7-4D1C-82F2-2BA490D57D66}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68C003-F7E5-4A9D-9376-24D59BB64D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9225" xr2:uid="{64BEA01C-7FB7-48CA-850F-E61A4B27FAF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64BEA01C-7FB7-48CA-850F-E61A4B27FAF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Dátum</t>
   </si>
@@ -493,16 +504,47 @@
   </si>
   <si>
     <t>Napi</t>
+  </si>
+  <si>
+    <t>hétfő</t>
+  </si>
+  <si>
+    <t>kedd</t>
+  </si>
+  <si>
+    <t>szerda</t>
+  </si>
+  <si>
+    <t>csütörtök</t>
+  </si>
+  <si>
+    <t>péntek</t>
+  </si>
+  <si>
+    <t>szombat</t>
+  </si>
+  <si>
+    <t>vasárnap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dddd"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -529,9 +571,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -549,10 +593,921 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$J$2:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>hétfő</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kedd</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>szerda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>csütörtök</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>péntek</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>szombat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>vasárnap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EFF-4594-9064-A1CBB57566FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A617B21C-5B17-7794-A0B6-CCA92152143F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -590,7 +1545,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -696,7 +1651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -838,7 +1793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -846,21 +1801,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0154E92-8835-487C-B5AD-6E47C6409D27}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -886,9 +1841,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43497</v>
+      </c>
+      <c r="B2" s="2">
+        <f>WEEKDAY(A2)</f>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -908,11 +1867,26 @@
         <f>A2+7*F2</f>
         <v>43539</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>IF(A2&lt;&gt;A3,SUMIFS($E$2:$E$149,$A$2:$A$149,"="&amp;A2),"")</f>
+        <v/>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF($B$2:$B$149,1+MOD(ROW(J2)-1,7))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43497</v>
       </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B66" si="0">WEEKDAY(A3)</f>
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -920,22 +1894,37 @@
         <v>8942</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">ROUND(D3,-3)</f>
+        <f t="shared" ref="E3:E66" si="1">ROUND(D3,-3)</f>
         <v>9000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">4+2*ROUNDUP(E3/5000,0)</f>
+        <f t="shared" ref="F3:F66" si="2">4+2*ROUNDUP(E3/5000,0)</f>
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="2">A3+7*F3</f>
+        <f t="shared" ref="G3:G66" si="3">A3+7*F3</f>
         <v>43553</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="4">IF(A3&lt;&gt;A4,SUMIFS($E$2:$E$149,$A$2:$A$149,"="&amp;A3),"")</f>
+        <v/>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="5">COUNTIF($B$2:$B$149,1+MOD(ROW(J3)-1,7))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43497</v>
       </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -943,22 +1932,37 @@
         <v>5460</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43539</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43497</v>
       </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -966,22 +1970,37 @@
         <v>12964</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43567</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43497</v>
       </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -989,22 +2008,37 @@
         <v>13858</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43567</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43497</v>
       </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -1012,22 +2046,37 @@
         <v>14983</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43567</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43497</v>
       </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -1035,22 +2084,37 @@
         <v>5607</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43553</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>67000</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43498</v>
       </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -1058,22 +2122,30 @@
         <v>7638</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43554</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43498</v>
       </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -1081,22 +2153,30 @@
         <v>2884</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43540</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43498</v>
       </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -1104,22 +2184,30 @@
         <v>4283</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43540</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43498</v>
       </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -1127,22 +2215,30 @@
         <v>11191</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43568</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43498</v>
       </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -1150,22 +2246,30 @@
         <v>5659</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43554</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43498</v>
       </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -1173,22 +2277,30 @@
         <v>4759</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43540</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43498</v>
       </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -1196,22 +2308,30 @@
         <v>8971</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43554</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43498</v>
       </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -1219,22 +2339,30 @@
         <v>11768</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43568</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43498</v>
       </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -1242,22 +2370,30 @@
         <v>4811</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43540</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43499</v>
       </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -1265,22 +2401,30 @@
         <v>9854</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43555</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43499</v>
       </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
@@ -1288,22 +2432,30 @@
         <v>11073</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43569</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43499</v>
       </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
@@ -1311,22 +2463,30 @@
         <v>4947</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43541</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43500</v>
       </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -1334,22 +2494,30 @@
         <v>13361</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43570</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43500</v>
       </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
@@ -1357,22 +2525,30 @@
         <v>14932</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43570</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43500</v>
       </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
@@ -1380,22 +2556,30 @@
         <v>16772</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17000</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43584</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43501</v>
       </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
@@ -1403,22 +2587,30 @@
         <v>16134</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43585</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43501</v>
       </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -1426,22 +2618,30 @@
         <v>3199</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43543</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43501</v>
       </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -1449,22 +2649,30 @@
         <v>14543</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43571</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43502</v>
       </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
@@ -1472,22 +2680,30 @@
         <v>8234</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43558</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43502</v>
       </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -1495,22 +2711,30 @@
         <v>19259</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43586</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43502</v>
       </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
@@ -1518,22 +2742,30 @@
         <v>6183</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43558</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43502</v>
       </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
@@ -1541,22 +2773,30 @@
         <v>13192</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43572</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43503</v>
       </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -1564,22 +2804,30 @@
         <v>12365</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43503</v>
       </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -1587,22 +2835,30 @@
         <v>11198</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43503</v>
       </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
@@ -1610,22 +2866,30 @@
         <v>11336</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43503</v>
       </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
@@ -1633,22 +2897,30 @@
         <v>13555</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43503</v>
       </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
@@ -1656,22 +2928,30 @@
         <v>11394</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43503</v>
       </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
@@ -1679,22 +2959,30 @@
         <v>18818</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43587</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43503</v>
       </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -1702,22 +2990,30 @@
         <v>11819</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43503</v>
       </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C38" t="s">
         <v>43</v>
       </c>
@@ -1725,22 +3021,30 @@
         <v>13185</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43504</v>
       </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -1748,22 +3052,30 @@
         <v>19559</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43588</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43504</v>
       </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C40" t="s">
         <v>45</v>
       </c>
@@ -1771,22 +3083,30 @@
         <v>8767</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43560</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43504</v>
       </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C41" t="s">
         <v>46</v>
       </c>
@@ -1794,22 +3114,30 @@
         <v>16565</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17000</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43588</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43504</v>
       </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C42" t="s">
         <v>47</v>
       </c>
@@ -1817,22 +3145,30 @@
         <v>16835</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17000</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43588</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43504</v>
       </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C43" t="s">
         <v>48</v>
       </c>
@@ -1840,22 +3176,30 @@
         <v>2065</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43546</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43504</v>
       </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C44" t="s">
         <v>49</v>
       </c>
@@ -1863,22 +3207,30 @@
         <v>2330</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43546</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43505</v>
       </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C45" t="s">
         <v>50</v>
       </c>
@@ -1886,22 +3238,30 @@
         <v>2298</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43547</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43505</v>
       </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C46" t="s">
         <v>51</v>
       </c>
@@ -1909,22 +3269,30 @@
         <v>19617</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43589</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43505</v>
       </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -1932,22 +3300,30 @@
         <v>12219</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43575</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43505</v>
       </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C48" t="s">
         <v>53</v>
       </c>
@@ -1955,22 +3331,30 @@
         <v>19357</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43589</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43505</v>
       </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -1978,22 +3362,30 @@
         <v>8795</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43561</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43505</v>
       </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C50" t="s">
         <v>55</v>
       </c>
@@ -2001,22 +3393,30 @@
         <v>8654</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43561</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43505</v>
       </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C51" t="s">
         <v>56</v>
       </c>
@@ -2024,22 +3424,30 @@
         <v>12966</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43575</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43505</v>
       </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C52" t="s">
         <v>57</v>
       </c>
@@ -2047,22 +3455,30 @@
         <v>18205</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43589</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43506</v>
       </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C53" t="s">
         <v>58</v>
       </c>
@@ -2070,22 +3486,30 @@
         <v>7800</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43562</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43506</v>
       </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C54" t="s">
         <v>59</v>
       </c>
@@ -2093,22 +3517,30 @@
         <v>7140</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43562</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43506</v>
       </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C55" t="s">
         <v>60</v>
       </c>
@@ -2116,22 +3548,30 @@
         <v>16189</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43590</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43507</v>
       </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="C56" t="s">
         <v>61</v>
       </c>
@@ -2139,22 +3579,30 @@
         <v>4590</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43549</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43507</v>
       </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
@@ -2162,22 +3610,30 @@
         <v>18743</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43591</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43507</v>
       </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="C58" t="s">
         <v>63</v>
       </c>
@@ -2185,22 +3641,30 @@
         <v>15453</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43577</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43508</v>
       </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C59" t="s">
         <v>64</v>
       </c>
@@ -2208,22 +3672,30 @@
         <v>4362</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43550</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43508</v>
       </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C60" t="s">
         <v>65</v>
       </c>
@@ -2231,22 +3703,30 @@
         <v>11719</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43578</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43508</v>
       </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C61" t="s">
         <v>66</v>
       </c>
@@ -2254,22 +3734,30 @@
         <v>6347</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43564</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43508</v>
       </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C62" t="s">
         <v>67</v>
       </c>
@@ -2277,22 +3765,30 @@
         <v>7331</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43564</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43509</v>
       </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C63" t="s">
         <v>68</v>
       </c>
@@ -2300,22 +3796,30 @@
         <v>16411</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43593</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43509</v>
       </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C64" t="s">
         <v>69</v>
       </c>
@@ -2323,22 +3827,30 @@
         <v>15437</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43579</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43509</v>
       </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
@@ -2346,22 +3858,30 @@
         <v>3172</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43551</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43510</v>
       </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C66" t="s">
         <v>71</v>
       </c>
@@ -2369,22 +3889,30 @@
         <v>7419</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43566</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43510</v>
       </c>
+      <c r="B67" s="2">
+        <f t="shared" ref="B67:B130" si="6">WEEKDAY(A67)</f>
+        <v>5</v>
+      </c>
       <c r="C67" t="s">
         <v>72</v>
       </c>
@@ -2392,22 +3920,30 @@
         <v>17421</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">ROUND(D67,-3)</f>
+        <f t="shared" ref="E67:E130" si="7">ROUND(D67,-3)</f>
         <v>17000</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="4">4+2*ROUNDUP(E67/5000,0)</f>
+        <f t="shared" ref="F67:F130" si="8">4+2*ROUNDUP(E67/5000,0)</f>
         <v>12</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G130" si="5">A67+7*F67</f>
+        <f t="shared" ref="G67:G130" si="9">A67+7*F67</f>
         <v>43594</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="10">IF(A67&lt;&gt;A68,SUMIFS($E$2:$E$149,$A$2:$A$149,"="&amp;A67),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43510</v>
       </c>
+      <c r="B68" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C68" t="s">
         <v>73</v>
       </c>
@@ -2415,22 +3951,30 @@
         <v>17315</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17000</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43594</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43510</v>
       </c>
+      <c r="B69" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C69" t="s">
         <v>74</v>
       </c>
@@ -2438,22 +3982,30 @@
         <v>10513</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11000</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43580</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43510</v>
       </c>
+      <c r="B70" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C70" t="s">
         <v>75</v>
       </c>
@@ -2461,22 +4013,30 @@
         <v>15098</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15000</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43580</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43510</v>
       </c>
+      <c r="B71" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C71" t="s">
         <v>76</v>
       </c>
@@ -2484,22 +4044,30 @@
         <v>10155</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43566</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43510</v>
       </c>
+      <c r="B72" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C72" t="s">
         <v>77</v>
       </c>
@@ -2507,22 +4075,30 @@
         <v>7836</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8000</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43566</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="10"/>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43511</v>
       </c>
+      <c r="B73" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C73" t="s">
         <v>78</v>
       </c>
@@ -2530,22 +4106,30 @@
         <v>8150</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8000</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43567</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43511</v>
       </c>
+      <c r="B74" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C74" t="s">
         <v>79</v>
       </c>
@@ -2553,22 +4137,30 @@
         <v>10477</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43567</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43511</v>
       </c>
+      <c r="B75" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C75" t="s">
         <v>80</v>
       </c>
@@ -2576,22 +4168,30 @@
         <v>3147</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43553</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43511</v>
       </c>
+      <c r="B76" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C76" t="s">
         <v>81</v>
       </c>
@@ -2599,22 +4199,30 @@
         <v>6562</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43567</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43511</v>
       </c>
+      <c r="B77" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C77" t="s">
         <v>82</v>
       </c>
@@ -2622,22 +4230,30 @@
         <v>11767</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12000</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43581</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43511</v>
       </c>
+      <c r="B78" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C78" t="s">
         <v>83</v>
       </c>
@@ -2645,22 +4261,30 @@
         <v>2779</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43553</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43511</v>
       </c>
+      <c r="B79" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C79" t="s">
         <v>84</v>
       </c>
@@ -2668,22 +4292,30 @@
         <v>5892</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6000</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43567</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43511</v>
       </c>
+      <c r="B80" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C80" t="s">
         <v>85</v>
       </c>
@@ -2691,22 +4323,30 @@
         <v>14927</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15000</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43581</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43511</v>
       </c>
+      <c r="B81" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C81" t="s">
         <v>86</v>
       </c>
@@ -2714,22 +4354,30 @@
         <v>19234</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19000</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43595</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43511</v>
       </c>
+      <c r="B82" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C82" t="s">
         <v>87</v>
       </c>
@@ -2737,22 +4385,30 @@
         <v>9105</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9000</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43567</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43512</v>
       </c>
+      <c r="B83" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C83" t="s">
         <v>88</v>
       </c>
@@ -2760,22 +4416,30 @@
         <v>5758</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6000</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43568</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43512</v>
       </c>
+      <c r="B84" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C84" t="s">
         <v>89</v>
       </c>
@@ -2783,22 +4447,30 @@
         <v>7045</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43568</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43512</v>
       </c>
+      <c r="B85" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C85" t="s">
         <v>90</v>
       </c>
@@ -2806,22 +4478,30 @@
         <v>4034</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43554</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43512</v>
       </c>
+      <c r="B86" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C86" t="s">
         <v>91</v>
       </c>
@@ -2829,22 +4509,30 @@
         <v>2262</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43554</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43512</v>
       </c>
+      <c r="B87" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C87" t="s">
         <v>92</v>
       </c>
@@ -2852,22 +4540,30 @@
         <v>18156</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18000</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43596</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43512</v>
       </c>
+      <c r="B88" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C88" t="s">
         <v>93</v>
       </c>
@@ -2875,22 +4571,30 @@
         <v>8168</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8000</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43568</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <f t="shared" si="10"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43513</v>
       </c>
+      <c r="B89" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="C89" t="s">
         <v>94</v>
       </c>
@@ -2898,22 +4602,30 @@
         <v>7975</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8000</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43569</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43513</v>
       </c>
+      <c r="B90" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="C90" t="s">
         <v>95</v>
       </c>
@@ -2921,22 +4633,30 @@
         <v>15592</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43597</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43513</v>
       </c>
+      <c r="B91" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="C91" t="s">
         <v>96</v>
       </c>
@@ -2944,22 +4664,30 @@
         <v>4025</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43555</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43513</v>
       </c>
+      <c r="B92" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="C92" t="s">
         <v>97</v>
       </c>
@@ -2967,22 +4695,30 @@
         <v>19558</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43597</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <f t="shared" si="10"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43514</v>
       </c>
+      <c r="B93" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="C93" t="s">
         <v>98</v>
       </c>
@@ -2990,22 +4726,30 @@
         <v>18580</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19000</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43598</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43514</v>
       </c>
+      <c r="B94" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="C94" t="s">
         <v>99</v>
       </c>
@@ -3013,22 +4757,30 @@
         <v>9116</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9000</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43570</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43514</v>
       </c>
+      <c r="B95" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="C95" t="s">
         <v>100</v>
       </c>
@@ -3036,22 +4788,30 @@
         <v>13032</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13000</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43584</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <f t="shared" si="10"/>
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43515</v>
       </c>
+      <c r="B96" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
       <c r="C96" t="s">
         <v>101</v>
       </c>
@@ -3059,22 +4819,30 @@
         <v>5210</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43557</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43515</v>
       </c>
+      <c r="B97" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
       <c r="C97" t="s">
         <v>102</v>
       </c>
@@ -3082,22 +4850,30 @@
         <v>10218</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43571</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43515</v>
       </c>
+      <c r="B98" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
       <c r="C98" t="s">
         <v>103</v>
       </c>
@@ -3105,22 +4881,30 @@
         <v>19926</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43599</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43515</v>
       </c>
+      <c r="B99" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
       <c r="C99" t="s">
         <v>104</v>
       </c>
@@ -3128,22 +4912,30 @@
         <v>3635</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43557</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43515</v>
       </c>
+      <c r="B100" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
       <c r="C100" t="s">
         <v>105</v>
       </c>
@@ -3151,22 +4943,30 @@
         <v>19505</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43599</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="10"/>
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43516</v>
       </c>
+      <c r="B101" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="C101" t="s">
         <v>106</v>
       </c>
@@ -3174,22 +4974,30 @@
         <v>5786</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6000</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43572</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43516</v>
       </c>
+      <c r="B102" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="C102" t="s">
         <v>107</v>
       </c>
@@ -3197,22 +5005,30 @@
         <v>16401</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43600</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43516</v>
       </c>
+      <c r="B103" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="C103" t="s">
         <v>108</v>
       </c>
@@ -3220,22 +5036,30 @@
         <v>17291</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17000</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43600</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <f t="shared" si="10"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43517</v>
       </c>
+      <c r="B104" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C104" t="s">
         <v>109</v>
       </c>
@@ -3243,22 +5067,30 @@
         <v>5588</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6000</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43517</v>
       </c>
+      <c r="B105" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C105" t="s">
         <v>110</v>
       </c>
@@ -3266,22 +5098,30 @@
         <v>11004</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11000</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43587</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43517</v>
       </c>
+      <c r="B106" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C106" t="s">
         <v>111</v>
       </c>
@@ -3289,22 +5129,30 @@
         <v>14602</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15000</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43587</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43517</v>
       </c>
+      <c r="B107" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C107" t="s">
         <v>112</v>
       </c>
@@ -3312,22 +5160,30 @@
         <v>2414</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43559</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43517</v>
       </c>
+      <c r="B108" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C108" t="s">
         <v>113</v>
       </c>
@@ -3335,22 +5191,30 @@
         <v>7069</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43573</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43517</v>
       </c>
+      <c r="B109" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="C109" t="s">
         <v>114</v>
       </c>
@@ -3358,22 +5222,30 @@
         <v>14838</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15000</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43587</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <f t="shared" si="10"/>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43518</v>
       </c>
+      <c r="B110" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C110" t="s">
         <v>115</v>
       </c>
@@ -3381,22 +5253,30 @@
         <v>7867</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8000</v>
       </c>
       <c r="F110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43574</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43518</v>
       </c>
+      <c r="B111" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C111" t="s">
         <v>116</v>
       </c>
@@ -3404,22 +5284,30 @@
         <v>12018</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12000</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43588</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43518</v>
       </c>
+      <c r="B112" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C112" t="s">
         <v>117</v>
       </c>
@@ -3427,22 +5315,30 @@
         <v>17170</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17000</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43602</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43518</v>
       </c>
+      <c r="B113" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C113" t="s">
         <v>118</v>
       </c>
@@ -3450,22 +5346,30 @@
         <v>18238</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18000</v>
       </c>
       <c r="F113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43602</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>43518</v>
       </c>
+      <c r="B114" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C114" t="s">
         <v>119</v>
       </c>
@@ -3473,22 +5377,30 @@
         <v>5407</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43560</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>43518</v>
       </c>
+      <c r="B115" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C115" t="s">
         <v>120</v>
       </c>
@@ -3496,22 +5408,30 @@
         <v>11242</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11000</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43588</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>43518</v>
       </c>
+      <c r="B116" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C116" t="s">
         <v>121</v>
       </c>
@@ -3519,22 +5439,30 @@
         <v>4176</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43560</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>43518</v>
       </c>
+      <c r="B117" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C117" t="s">
         <v>122</v>
       </c>
@@ -3542,22 +5470,30 @@
         <v>16648</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17000</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43602</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>43518</v>
       </c>
+      <c r="B118" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
       <c r="C118" t="s">
         <v>123</v>
       </c>
@@ -3565,22 +5501,30 @@
         <v>4127</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43560</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <f t="shared" si="10"/>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>43519</v>
       </c>
+      <c r="B119" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C119" t="s">
         <v>124</v>
       </c>
@@ -3588,22 +5532,30 @@
         <v>12641</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13000</v>
       </c>
       <c r="F119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43589</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>43519</v>
       </c>
+      <c r="B120" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C120" t="s">
         <v>125</v>
       </c>
@@ -3611,22 +5563,30 @@
         <v>17611</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18000</v>
       </c>
       <c r="F120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43603</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>43519</v>
       </c>
+      <c r="B121" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C121" t="s">
         <v>126</v>
       </c>
@@ -3634,22 +5594,30 @@
         <v>13559</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14000</v>
       </c>
       <c r="F121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43589</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>43519</v>
       </c>
+      <c r="B122" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C122" t="s">
         <v>127</v>
       </c>
@@ -3657,22 +5625,30 @@
         <v>5252</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43561</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>43519</v>
       </c>
+      <c r="B123" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
       <c r="C123" t="s">
         <v>128</v>
       </c>
@@ -3680,22 +5656,30 @@
         <v>4789</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
       <c r="F123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43561</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <f t="shared" si="10"/>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>43520</v>
       </c>
+      <c r="B124" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="C124" t="s">
         <v>129</v>
       </c>
@@ -3703,22 +5687,30 @@
         <v>4593</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43562</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>43520</v>
       </c>
+      <c r="B125" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="C125" t="s">
         <v>130</v>
       </c>
@@ -3726,22 +5718,30 @@
         <v>12618</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13000</v>
       </c>
       <c r="F125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43590</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>43520</v>
       </c>
+      <c r="B126" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="C126" t="s">
         <v>131</v>
       </c>
@@ -3749,22 +5749,30 @@
         <v>15556</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16000</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43604</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>43520</v>
       </c>
+      <c r="B127" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="C127" t="s">
         <v>132</v>
       </c>
@@ -3772,22 +5780,30 @@
         <v>13692</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14000</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43590</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <f t="shared" si="10"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>43521</v>
       </c>
+      <c r="B128" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="C128" t="s">
         <v>133</v>
       </c>
@@ -3795,22 +5811,30 @@
         <v>19479</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19000</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43605</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>43521</v>
       </c>
+      <c r="B129" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="C129" t="s">
         <v>134</v>
       </c>
@@ -3818,22 +5842,30 @@
         <v>16611</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17000</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43605</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>43521</v>
       </c>
+      <c r="B130" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="C130" t="s">
         <v>135</v>
       </c>
@@ -3841,22 +5873,30 @@
         <v>8697</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9000</v>
       </c>
       <c r="F130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43577</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>43521</v>
       </c>
+      <c r="B131" s="2">
+        <f t="shared" ref="B131:B149" si="11">WEEKDAY(A131)</f>
+        <v>2</v>
+      </c>
       <c r="C131" t="s">
         <v>136</v>
       </c>
@@ -3864,22 +5904,30 @@
         <v>11906</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E149" si="6">ROUND(D131,-3)</f>
+        <f t="shared" ref="E131:E149" si="12">ROUND(D131,-3)</f>
         <v>12000</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F149" si="7">4+2*ROUNDUP(E131/5000,0)</f>
+        <f t="shared" ref="F131:F149" si="13">4+2*ROUNDUP(E131/5000,0)</f>
         <v>10</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" ref="G131:G149" si="8">A131+7*F131</f>
+        <f t="shared" ref="G131:G149" si="14">A131+7*F131</f>
         <v>43591</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H149" si="15">IF(A131&lt;&gt;A132,SUMIFS($E$2:$E$149,$A$2:$A$149,"="&amp;A131),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>43521</v>
       </c>
+      <c r="B132" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="C132" t="s">
         <v>137</v>
       </c>
@@ -3887,22 +5935,30 @@
         <v>3769</v>
       </c>
       <c r="E132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
       <c r="F132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43563</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <f t="shared" si="15"/>
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>43522</v>
       </c>
+      <c r="B133" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="C133" t="s">
         <v>138</v>
       </c>
@@ -3910,22 +5966,30 @@
         <v>8814</v>
       </c>
       <c r="E133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9000</v>
       </c>
       <c r="F133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43578</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>43522</v>
       </c>
+      <c r="B134" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="C134" t="s">
         <v>139</v>
       </c>
@@ -3933,22 +5997,30 @@
         <v>6549</v>
       </c>
       <c r="E134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7000</v>
       </c>
       <c r="F134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43578</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>43522</v>
       </c>
+      <c r="B135" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="C135" t="s">
         <v>140</v>
       </c>
@@ -3956,22 +6028,30 @@
         <v>8144</v>
       </c>
       <c r="E135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8000</v>
       </c>
       <c r="F135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43578</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>43522</v>
       </c>
+      <c r="B136" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="C136" t="s">
         <v>141</v>
       </c>
@@ -3979,22 +6059,30 @@
         <v>6075</v>
       </c>
       <c r="E136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6000</v>
       </c>
       <c r="F136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43578</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <f t="shared" si="15"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>43523</v>
       </c>
+      <c r="B137" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="C137" t="s">
         <v>142</v>
       </c>
@@ -4002,22 +6090,30 @@
         <v>7743</v>
       </c>
       <c r="E137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8000</v>
       </c>
       <c r="F137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43579</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43523</v>
       </c>
+      <c r="B138" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="C138" t="s">
         <v>143</v>
       </c>
@@ -4025,22 +6121,30 @@
         <v>7958</v>
       </c>
       <c r="E138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8000</v>
       </c>
       <c r="F138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43579</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>43523</v>
       </c>
+      <c r="B139" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="C139" t="s">
         <v>144</v>
       </c>
@@ -4048,22 +6152,30 @@
         <v>16480</v>
       </c>
       <c r="E139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>16000</v>
       </c>
       <c r="F139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43607</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>43523</v>
       </c>
+      <c r="B140" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="C140" t="s">
         <v>145</v>
       </c>
@@ -4071,22 +6183,30 @@
         <v>5518</v>
       </c>
       <c r="E140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6000</v>
       </c>
       <c r="F140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43579</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>43523</v>
       </c>
+      <c r="B141" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="C141" t="s">
         <v>146</v>
       </c>
@@ -4094,22 +6214,30 @@
         <v>4796</v>
       </c>
       <c r="E141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5000</v>
       </c>
       <c r="F141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43565</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>43523</v>
       </c>
+      <c r="B142" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="C142" t="s">
         <v>147</v>
       </c>
@@ -4117,22 +6245,30 @@
         <v>6566</v>
       </c>
       <c r="E142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7000</v>
       </c>
       <c r="F142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43579</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <f t="shared" si="15"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>43524</v>
       </c>
+      <c r="B143" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="C143" t="s">
         <v>148</v>
       </c>
@@ -4140,22 +6276,30 @@
         <v>2284</v>
       </c>
       <c r="E143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2000</v>
       </c>
       <c r="F143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43566</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>43524</v>
       </c>
+      <c r="B144" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="C144" t="s">
         <v>149</v>
       </c>
@@ -4163,22 +6307,30 @@
         <v>18633</v>
       </c>
       <c r="E144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>19000</v>
       </c>
       <c r="F144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43608</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>43524</v>
       </c>
+      <c r="B145" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="C145" t="s">
         <v>150</v>
       </c>
@@ -4186,22 +6338,30 @@
         <v>15303</v>
       </c>
       <c r="E145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>15000</v>
       </c>
       <c r="F145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43594</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>43524</v>
       </c>
+      <c r="B146" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="C146" t="s">
         <v>151</v>
       </c>
@@ -4209,22 +6369,30 @@
         <v>12920</v>
       </c>
       <c r="E146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13000</v>
       </c>
       <c r="F146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43594</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>43524</v>
       </c>
+      <c r="B147" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="C147" t="s">
         <v>152</v>
       </c>
@@ -4232,22 +6400,30 @@
         <v>19900</v>
       </c>
       <c r="E147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
       <c r="F147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43608</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>43524</v>
       </c>
+      <c r="B148" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="C148" t="s">
         <v>153</v>
       </c>
@@ -4255,22 +6431,30 @@
         <v>17508</v>
       </c>
       <c r="E148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>18000</v>
       </c>
       <c r="F148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43608</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43524</v>
       </c>
+      <c r="B149" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="C149" t="s">
         <v>154</v>
       </c>
@@ -4278,24 +6462,39 @@
         <v>12292</v>
       </c>
       <c r="E149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12000</v>
       </c>
       <c r="F149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>43594</v>
       </c>
+      <c r="H149">
+        <f t="shared" si="15"/>
+        <v>99000</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101009AE82BD902A47644A5E4D56DF3CCA1E9" ma:contentTypeVersion="14" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="89a30292f1634b84b35d6b5d832e547e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="84647b37-4f80-4447-b526-19b3eac6576c" xmlns:ns4="7ac5ad9a-cf71-4940-a596-ba9893dcab86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41c2947693ae83952484f82e0fd71fe5" ns3:_="" ns4:_="">
     <xsd:import namespace="84647b37-4f80-4447-b526-19b3eac6576c"/>
@@ -4522,15 +6721,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4540,6 +6730,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DDB4B6-1898-4833-B6AD-86312A781A6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85F41F00-BF64-4D6F-958A-5D2C717D5A30}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4554,14 +6752,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DDB4B6-1898-4833-B6AD-86312A781A6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
